--- a/thesis_graphs.xlsx
+++ b/thesis_graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ATC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1F81D2-3775-4A7C-B325-A7BA3B500655}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981301EB-1A2D-4894-9861-2E5B3391B3C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5340" yWindow="3675" windowWidth="21555" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>sm1</t>
   </si>
@@ -99,6 +99,60 @@
   </si>
   <si>
     <t>011_0074</t>
+  </si>
+  <si>
+    <t>model_transcription</t>
+  </si>
+  <si>
+    <t>exact</t>
+  </si>
+  <si>
+    <t>111_0627</t>
+  </si>
+  <si>
+    <t>expect</t>
+  </si>
+  <si>
+    <t>roger what is your position</t>
+  </si>
+  <si>
+    <t>101_0199</t>
+  </si>
+  <si>
+    <t>roger ah what is your position</t>
+  </si>
+  <si>
+    <t>golf bravo victor juliett india is identified good afternoon</t>
+  </si>
+  <si>
+    <t>051_0227</t>
+  </si>
+  <si>
+    <t>goll bravo victor juliett india is identified good afternoon</t>
+  </si>
+  <si>
+    <t>{'golf'}</t>
+  </si>
+  <si>
+    <t>{'exact'}</t>
+  </si>
+  <si>
+    <t>difference</t>
+  </si>
+  <si>
+    <t>set()</t>
+  </si>
+  <si>
+    <t>japan air four one nine contact milan one three four five two bye</t>
+  </si>
+  <si>
+    <t>101_0308</t>
+  </si>
+  <si>
+    <t>german air four one nine contact milan one three four five two bye</t>
+  </si>
+  <si>
+    <t>{'japan'}</t>
   </si>
 </sst>
 </file>
@@ -182,6 +236,24 @@
     <tableColumn id="10" xr3:uid="{CFD13D0B-EE37-4953-AE4C-808BF00551A3}" name="length_sec"/>
     <tableColumn id="11" xr3:uid="{986630E7-5BC0-42ED-81EE-59192B30A25B}" name="recording_id"/>
     <tableColumn id="12" xr3:uid="{7314666C-096A-449B-83B2-DBC06FDB401F}" name="recording_startpos_sec" totalsRowFunction="sum"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D7C0375B-24BF-40AA-86F0-196B8E63FDC1}" name="Table2" displayName="Table2" ref="A9:D13" totalsRowShown="0">
+  <autoFilter ref="A9:D13" xr:uid="{93D5DBEE-53D1-48B8-B33C-CE3B0FAAA96A}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{C0F6FE52-771F-45D6-BDD8-8B9226D6967F}" name="transcription"/>
+    <tableColumn id="2" xr3:uid="{5F67B1BD-0EF4-41AC-B4D7-0D5588429542}" name="recording_id"/>
+    <tableColumn id="3" xr3:uid="{5A59900E-7471-40D5-8C86-239D6F21FA22}" name="model_transcription"/>
+    <tableColumn id="4" xr3:uid="{288FFD74-A31D-483F-A689-1BCC933BA221}" name="difference"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -450,17 +522,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:L5"/>
+  <dimension ref="A2:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L5"/>
+      <selection activeCell="A9" sqref="A9:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
@@ -615,10 +687,82 @@
         <v>2210.622625</v>
       </c>
     </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/thesis_graphs.xlsx
+++ b/thesis_graphs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ATC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karan\Desktop\Thesis\ATC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981301EB-1A2D-4894-9861-2E5B3391B3C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525E9648-2C37-4EF6-A679-11F881739485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="3675" windowWidth="21555" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16629" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -237,7 +237,7 @@
     <tableColumn id="11" xr3:uid="{986630E7-5BC0-42ED-81EE-59192B30A25B}" name="recording_id"/>
     <tableColumn id="12" xr3:uid="{7314666C-096A-449B-83B2-DBC06FDB401F}" name="recording_startpos_sec" totalsRowFunction="sum"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -255,7 +255,7 @@
     <tableColumn id="3" xr3:uid="{5A59900E-7471-40D5-8C86-239D6F21FA22}" name="model_transcription"/>
     <tableColumn id="4" xr3:uid="{288FFD74-A31D-483F-A689-1BCC933BA221}" name="difference"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -524,27 +524,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:D13"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="34.140625" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="26" customWidth="1"/>
+    <col min="1" max="1" width="8.4609375" customWidth="1"/>
+    <col min="2" max="2" width="11.3046875" customWidth="1"/>
+    <col min="3" max="3" width="11.84375" customWidth="1"/>
+    <col min="4" max="4" width="10.61328125" customWidth="1"/>
+    <col min="5" max="5" width="9.4609375" customWidth="1"/>
+    <col min="6" max="6" width="11.69140625" customWidth="1"/>
+    <col min="7" max="7" width="31.3828125" customWidth="1"/>
+    <col min="8" max="8" width="16.15234375" customWidth="1"/>
+    <col min="9" max="9" width="22.69140625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
-    <col min="12" max="12" width="23.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.765625" customWidth="1"/>
+    <col min="12" max="12" width="23.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -582,7 +582,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -617,7 +617,7 @@
         <v>902.03949999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -652,7 +652,7 @@
         <v>1091.8533749999999</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -687,7 +687,7 @@
         <v>2210.622625</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -701,7 +701,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -715,7 +715,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -729,7 +729,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -743,7 +743,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>37</v>
       </c>

--- a/thesis_graphs.xlsx
+++ b/thesis_graphs.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karan\Desktop\Thesis\ATC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525E9648-2C37-4EF6-A679-11F881739485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8093639-EFA0-4BAC-A95B-353E468E2C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16629" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,6 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -188,13 +194,232 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="55"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="55"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="55" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -207,8 +432,21 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="transcribed_metrics_graphs"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{37826C9C-5CCC-4AFE-8D1F-A927EB835DAC}" name="Table1" displayName="Table1" ref="A2:L5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{37826C9C-5CCC-4AFE-8D1F-A927EB835DAC}" name="Table1" displayName="Table1" ref="A2:L5" headerRowDxfId="2" dataDxfId="0" totalsRowDxfId="1">
   <autoFilter ref="A2:L5" xr:uid="{C820DE04-ABB0-485A-8633-E5CE74E114E5}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -224,26 +462,26 @@
     <filterColumn colId="11" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{9FC032D0-CAD3-4D8F-982E-F2752E48B552}" name="directory" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{85A7879A-543C-480A-9262-4A7E3ED44FDE}" name="subdirectory"/>
-    <tableColumn id="3" xr3:uid="{A71C8D05-9912-4B35-B4B7-85E28DE719D0}" name="filename"/>
-    <tableColumn id="4" xr3:uid="{9E65F361-F0F8-4229-896E-A1EB9149A025}" name="speaker_id"/>
-    <tableColumn id="5" xr3:uid="{FDF50ED7-1378-4EF6-934D-95B64A1ABA98}" name="session_id"/>
-    <tableColumn id="6" xr3:uid="{E2238C0A-1BA3-4C1B-8FAE-417A2172B408}" name="utterance_id"/>
-    <tableColumn id="7" xr3:uid="{36F425EE-53AF-420D-88F0-DB04D2700183}" name="transcription"/>
-    <tableColumn id="8" xr3:uid="{36C6B0AD-9913-439B-843F-33A0031DB088}" name="recording_corrupt"/>
-    <tableColumn id="9" xr3:uid="{29A34865-296F-4FF3-BAF4-66007D176596}" name="comment_transcriptionist"/>
-    <tableColumn id="10" xr3:uid="{CFD13D0B-EE37-4953-AE4C-808BF00551A3}" name="length_sec"/>
-    <tableColumn id="11" xr3:uid="{986630E7-5BC0-42ED-81EE-59192B30A25B}" name="recording_id"/>
-    <tableColumn id="12" xr3:uid="{7314666C-096A-449B-83B2-DBC06FDB401F}" name="recording_startpos_sec" totalsRowFunction="sum"/>
+    <tableColumn id="1" xr3:uid="{9FC032D0-CAD3-4D8F-982E-F2752E48B552}" name="directory" totalsRowLabel="Total" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{85A7879A-543C-480A-9262-4A7E3ED44FDE}" name="subdirectory" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{A71C8D05-9912-4B35-B4B7-85E28DE719D0}" name="filename" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{9E65F361-F0F8-4229-896E-A1EB9149A025}" name="speaker_id" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{FDF50ED7-1378-4EF6-934D-95B64A1ABA98}" name="session_id" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{E2238C0A-1BA3-4C1B-8FAE-417A2172B408}" name="utterance_id" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{36F425EE-53AF-420D-88F0-DB04D2700183}" name="transcription" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{36C6B0AD-9913-439B-843F-33A0031DB088}" name="recording_corrupt" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{29A34865-296F-4FF3-BAF4-66007D176596}" name="comment_transcriptionist" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{CFD13D0B-EE37-4953-AE4C-808BF00551A3}" name="length_sec" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{986630E7-5BC0-42ED-81EE-59192B30A25B}" name="recording_id" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{7314666C-096A-449B-83B2-DBC06FDB401F}" name="recording_startpos_sec" totalsRowFunction="sum" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D7C0375B-24BF-40AA-86F0-196B8E63FDC1}" name="Table2" displayName="Table2" ref="A9:D13" totalsRowShown="0">
-  <autoFilter ref="A9:D13" xr:uid="{93D5DBEE-53D1-48B8-B33C-CE3B0FAAA96A}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D7C0375B-24BF-40AA-86F0-196B8E63FDC1}" name="Table2" displayName="Table2" ref="P8:S12" totalsRowShown="0">
+  <autoFilter ref="P8:S12" xr:uid="{93D5DBEE-53D1-48B8-B33C-CE3B0FAAA96A}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -522,238 +760,239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:L13"/>
+  <dimension ref="A2:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.4609375" customWidth="1"/>
-    <col min="2" max="2" width="11.3046875" customWidth="1"/>
-    <col min="3" max="3" width="11.84375" customWidth="1"/>
-    <col min="4" max="4" width="10.61328125" customWidth="1"/>
-    <col min="5" max="5" width="9.4609375" customWidth="1"/>
-    <col min="6" max="6" width="11.69140625" customWidth="1"/>
-    <col min="7" max="7" width="31.3828125" customWidth="1"/>
-    <col min="8" max="8" width="16.15234375" customWidth="1"/>
-    <col min="9" max="9" width="22.69140625" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="11.765625" customWidth="1"/>
-    <col min="12" max="12" width="23.53515625" customWidth="1"/>
+    <col min="1" max="1" width="4.23046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.23046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.23046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.23046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="4.07421875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="4.07421875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.84375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.84375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.3828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:19" s="2" customFormat="1" ht="108.9" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="3" spans="1:19" ht="41.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="J3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1">
         <v>2.3776250000000001</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <v>902.03949999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    <row r="4" spans="1:19" ht="46.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>27</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>0</v>
       </c>
-      <c r="J4">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1">
         <v>1.9961562500000001</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <v>1091.8533749999999</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+    <row r="5" spans="1:19" ht="45.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>74</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>0</v>
       </c>
-      <c r="J5">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1">
         <v>2.7043124999999999</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <v>2210.622625</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="P8" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="Q8" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
+      <c r="R8" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="S8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="P9" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
+      <c r="Q9" t="s">
         <v>31</v>
       </c>
-      <c r="C10" t="s">
+      <c r="R9" t="s">
         <v>32</v>
       </c>
-      <c r="D10" t="s">
+      <c r="S9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="P10" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="Q10" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
+      <c r="R10" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
+      <c r="S10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="P11" t="s">
         <v>27</v>
       </c>
-      <c r="B12" t="s">
+      <c r="Q11" t="s">
         <v>28</v>
       </c>
-      <c r="C12" t="s">
+      <c r="R11" t="s">
         <v>29</v>
       </c>
-      <c r="D12" t="s">
+      <c r="S11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="P12" t="s">
         <v>37</v>
       </c>
-      <c r="B13" t="s">
+      <c r="Q12" t="s">
         <v>38</v>
       </c>
-      <c r="C13" t="s">
+      <c r="R12" t="s">
         <v>39</v>
       </c>
-      <c r="D13" t="s">
+      <c r="S12" t="s">
         <v>40</v>
       </c>
     </row>
